--- a/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6C06FB-AEA8-409A-A8AF-E63C4071546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9DB850-1119-46B4-A240-4269F30BA40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{021D0163-D068-494D-AF99-1B1EE4BD66BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04B581EA-3E92-47CA-87A3-60CE9A0381A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="325">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,52%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
   </si>
   <si>
     <t>51,91%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>25,99%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,868 +134,880 @@
     <t>6,11%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
     <t>10,39%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,69%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1410,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5A567F-0ABC-46AF-9AFA-21DCA90B835F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41735A90-E1D6-4D7B-823A-7740CDC26D3F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1753,13 +1765,13 @@
         <v>1681</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -1768,19 +1780,19 @@
         <v>7016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -1789,13 +1801,13 @@
         <v>2894</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1804,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1819,13 +1831,13 @@
         <v>2894</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1852,13 @@
         <v>50470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -1855,13 +1867,13 @@
         <v>43750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -1870,18 +1882,18 @@
         <v>94220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1893,13 +1905,13 @@
         <v>135879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -1908,13 +1920,13 @@
         <v>108050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -1923,13 +1935,13 @@
         <v>243929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1956,13 @@
         <v>72694</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -1959,13 +1971,13 @@
         <v>60489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -1974,13 +1986,13 @@
         <v>133183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +2007,13 @@
         <v>27374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2010,13 +2022,13 @@
         <v>18282</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -2025,13 +2037,13 @@
         <v>45657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2058,13 @@
         <v>30736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2061,13 +2073,13 @@
         <v>16401</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2076,13 +2088,13 @@
         <v>47137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2109,7 @@
         <v>19221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>106</v>
@@ -2139,7 +2151,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>7</v>
@@ -2154,7 +2166,7 @@
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2163,13 +2175,13 @@
         <v>3148</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2178,10 +2190,10 @@
         <v>9150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>121</v>
@@ -2199,13 +2211,13 @@
         <v>291906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
@@ -2214,13 +2226,13 @@
         <v>227413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -2229,13 +2241,13 @@
         <v>519319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,7 +2261,7 @@
         <v>239</v>
       </c>
       <c r="D18" s="7">
-        <v>317087</v>
+        <v>317088</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>123</v>
@@ -2438,10 +2450,10 @@
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2468,13 @@
         <v>33739</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -2471,10 +2483,10 @@
         <v>24487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>162</v>
@@ -2492,13 +2504,13 @@
         <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="7">
         <v>17</v>
@@ -2507,13 +2519,13 @@
         <v>20282</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2522,13 +2534,13 @@
         <v>8677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2537,13 +2549,13 @@
         <v>28959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,16 +2567,16 @@
         <v>530</v>
       </c>
       <c r="D24" s="7">
-        <v>633353</v>
+        <v>633354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>600</v>
@@ -2573,13 +2585,13 @@
         <v>444579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1130</v>
@@ -2588,18 +2600,18 @@
         <v>1077932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2611,13 +2623,13 @@
         <v>211847</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -2626,13 +2638,13 @@
         <v>171172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2641,13 +2653,13 @@
         <v>383019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2674,13 @@
         <v>69148</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -2677,13 +2689,13 @@
         <v>57045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -2692,13 +2704,13 @@
         <v>126193</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2725,13 @@
         <v>25702</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2728,13 +2740,13 @@
         <v>26815</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2743,13 +2755,13 @@
         <v>52517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2776,13 @@
         <v>41261</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2779,13 +2791,13 @@
         <v>33154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -2794,13 +2806,13 @@
         <v>74415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2827,13 @@
         <v>9590</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2830,13 +2842,13 @@
         <v>25743</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -2845,19 +2857,19 @@
         <v>35333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -2866,7 +2878,7 @@
         <v>11060</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>219</v>
@@ -2917,13 +2929,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>425</v>
@@ -2932,13 +2944,13 @@
         <v>325448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2947,13 +2959,13 @@
         <v>694056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3090,7 @@
         <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -3087,13 +3099,13 @@
         <v>39521</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="M34" s="7">
         <v>91</v>
@@ -3102,13 +3114,13 @@
         <v>77128</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,10 +3135,10 @@
         <v>30178</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>254</v>
@@ -3153,13 +3165,13 @@
         <v>61820</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3186,13 @@
         <v>29027</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -3189,13 +3201,13 @@
         <v>29295</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
         <v>69</v>
@@ -3207,16 +3219,16 @@
         <v>31</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>13</v>
@@ -3225,13 +3237,13 @@
         <v>12812</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3240,13 +3252,13 @@
         <v>21615</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>51</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -3255,13 +3267,13 @@
         <v>34427</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3288,13 @@
         <v>492173</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H38" s="7">
         <v>604</v>
@@ -3291,13 +3303,13 @@
         <v>462326</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M38" s="7">
         <v>1082</v>
@@ -3306,13 +3318,13 @@
         <v>954499</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3341,13 @@
         <v>935672</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H39" s="7">
         <v>972</v>
@@ -3344,13 +3356,13 @@
         <v>743712</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M39" s="7">
         <v>1798</v>
@@ -3359,13 +3371,13 @@
         <v>1679384</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3392,13 @@
         <v>425697</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>523</v>
@@ -3395,13 +3407,13 @@
         <v>352091</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M40" s="7">
         <v>944</v>
@@ -3410,13 +3422,13 @@
         <v>777788</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3443,13 @@
         <v>152667</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H41" s="7">
         <v>174</v>
@@ -3446,13 +3458,13 @@
         <v>125405</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M41" s="7">
         <v>313</v>
@@ -3461,13 +3473,13 @@
         <v>278072</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>141</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3494,13 @@
         <v>172515</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>299</v>
+        <v>160</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -3497,13 +3509,13 @@
         <v>135099</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M42" s="7">
         <v>336</v>
@@ -3512,13 +3524,13 @@
         <v>307614</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3545,13 @@
         <v>96911</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H43" s="7">
         <v>130</v>
@@ -3548,13 +3560,13 @@
         <v>102250</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="M43" s="7">
         <v>218</v>
@@ -3563,19 +3575,19 @@
         <v>199160</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>50</v>
@@ -3584,13 +3596,13 @@
         <v>53049</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>225</v>
+        <v>317</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
       <c r="H44" s="7">
         <v>54</v>
@@ -3599,13 +3611,13 @@
         <v>44959</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -3614,13 +3626,13 @@
         <v>98008</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3647,13 @@
         <v>1836511</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H45" s="7">
         <v>2037</v>
@@ -3650,13 +3662,13 @@
         <v>1503516</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M45" s="7">
         <v>3713</v>
@@ -3665,18 +3677,18 @@
         <v>3340027</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9DB850-1119-46B4-A240-4269F30BA40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E26C001-1151-440B-A890-7477B58F736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04B581EA-3E92-47CA-87A3-60CE9A0381A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48F2E3AB-BA3E-4B2B-AD64-2FC397C261AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
@@ -251,7 +251,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>46,55%</t>
@@ -404,7 +404,7 @@
     <t>3,0%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>50,06%</t>
@@ -563,7 +563,7 @@
     <t>4,06%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>57,47%</t>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41735A90-E1D6-4D7B-823A-7740CDC26D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D905C0-887D-4FC8-AB5A-6F6710A764DD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E26C001-1151-440B-A890-7477B58F736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF112248-0855-4191-8E21-9E95F15124C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48F2E3AB-BA3E-4B2B-AD64-2FC397C261AE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D039A06E-6013-4455-BE4D-ED4A82744D08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="321">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,52%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>51,91%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,910 +104,898 @@
     <t>14,22%</t>
   </si>
   <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1422,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D905C0-887D-4FC8-AB5A-6F6710A764DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BA7DDE-2C4B-4A34-96E9-5E7A40A26530}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1765,13 +1753,13 @@
         <v>1681</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -1780,19 +1768,19 @@
         <v>7016</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -1801,13 +1789,13 @@
         <v>2894</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1816,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1831,13 +1819,13 @@
         <v>2894</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1840,13 @@
         <v>50470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -1867,13 +1855,13 @@
         <v>43750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>119</v>
@@ -1882,18 +1870,18 @@
         <v>94220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1893,13 @@
         <v>135879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>162</v>
@@ -1920,13 +1908,13 @@
         <v>108050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>292</v>
@@ -1935,13 +1923,13 @@
         <v>243929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1944,13 @@
         <v>72694</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -1971,13 +1959,13 @@
         <v>60489</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -1986,13 +1974,13 @@
         <v>133183</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +1995,13 @@
         <v>27374</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2022,13 +2010,13 @@
         <v>18282</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -2037,13 +2025,13 @@
         <v>45657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2046,13 @@
         <v>30736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -2073,13 +2061,13 @@
         <v>16401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -2088,13 +2076,13 @@
         <v>47137</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,7 +2097,7 @@
         <v>19221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>106</v>
@@ -2151,7 +2139,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>7</v>
@@ -2166,7 +2154,7 @@
         <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2175,13 +2163,13 @@
         <v>3148</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2190,10 +2178,10 @@
         <v>9150</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>121</v>
@@ -2211,13 +2199,13 @@
         <v>291906</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
@@ -2226,13 +2214,13 @@
         <v>227413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>626</v>
@@ -2241,13 +2229,13 @@
         <v>519319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2249,7 @@
         <v>239</v>
       </c>
       <c r="D18" s="7">
-        <v>317088</v>
+        <v>317087</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>123</v>
@@ -2450,10 +2438,10 @@
         <v>34</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2456,13 @@
         <v>33739</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -2483,10 +2471,10 @@
         <v>24487</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>162</v>
@@ -2504,13 +2492,13 @@
         <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>17</v>
@@ -2519,13 +2507,13 @@
         <v>20282</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2534,13 +2522,13 @@
         <v>8677</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>30</v>
@@ -2549,13 +2537,13 @@
         <v>28959</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,16 +2555,16 @@
         <v>530</v>
       </c>
       <c r="D24" s="7">
-        <v>633354</v>
+        <v>633353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H24" s="7">
         <v>600</v>
@@ -2585,13 +2573,13 @@
         <v>444579</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>1130</v>
@@ -2600,18 +2588,18 @@
         <v>1077932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2623,13 +2611,13 @@
         <v>211847</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -2638,13 +2626,13 @@
         <v>171172</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -2653,13 +2641,13 @@
         <v>383019</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2662,13 @@
         <v>69148</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -2689,13 +2677,13 @@
         <v>57045</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -2704,13 +2692,13 @@
         <v>126193</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2713,13 @@
         <v>25702</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>36</v>
@@ -2740,13 +2728,13 @@
         <v>26815</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -2755,13 +2743,13 @@
         <v>52517</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2764,13 @@
         <v>41261</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -2791,13 +2779,13 @@
         <v>33154</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -2806,13 +2794,13 @@
         <v>74415</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2815,13 @@
         <v>9590</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2842,13 +2830,13 @@
         <v>25743</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -2857,19 +2845,19 @@
         <v>35333</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>10</v>
@@ -2878,7 +2866,7 @@
         <v>11060</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>219</v>
@@ -2929,13 +2917,13 @@
         <v>368608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>425</v>
@@ -2944,13 +2932,13 @@
         <v>325448</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M31" s="7">
         <v>756</v>
@@ -2959,13 +2947,13 @@
         <v>694056</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3078,7 @@
         <v>246</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>247</v>
+        <v>51</v>
       </c>
       <c r="H34" s="7">
         <v>52</v>
@@ -3099,13 +3087,13 @@
         <v>39521</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="M34" s="7">
         <v>91</v>
@@ -3114,13 +3102,13 @@
         <v>77128</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,10 +3123,10 @@
         <v>30178</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>254</v>
@@ -3165,13 +3153,13 @@
         <v>61820</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3174,13 @@
         <v>29027</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -3201,13 +3189,13 @@
         <v>29295</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="L36" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>69</v>
@@ -3219,16 +3207,16 @@
         <v>31</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7">
         <v>13</v>
@@ -3237,13 +3225,13 @@
         <v>12812</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3252,13 +3240,13 @@
         <v>21615</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>36</v>
@@ -3267,13 +3255,13 @@
         <v>34427</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3276,13 @@
         <v>492173</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7">
         <v>604</v>
@@ -3303,13 +3291,13 @@
         <v>462326</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M38" s="7">
         <v>1082</v>
@@ -3318,13 +3306,13 @@
         <v>954499</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3329,13 @@
         <v>935672</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H39" s="7">
         <v>972</v>
@@ -3356,13 +3344,13 @@
         <v>743712</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M39" s="7">
         <v>1798</v>
@@ -3371,13 +3359,13 @@
         <v>1679384</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3380,13 @@
         <v>425697</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>523</v>
@@ -3407,13 +3395,13 @@
         <v>352091</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M40" s="7">
         <v>944</v>
@@ -3422,13 +3410,13 @@
         <v>777788</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3431,13 @@
         <v>152667</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>174</v>
@@ -3458,13 +3446,13 @@
         <v>125405</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>313</v>
@@ -3473,13 +3461,13 @@
         <v>278072</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3482,13 @@
         <v>172515</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H42" s="7">
         <v>184</v>
@@ -3509,13 +3497,13 @@
         <v>135099</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>336</v>
@@ -3524,13 +3512,13 @@
         <v>307614</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3533,13 @@
         <v>96911</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H43" s="7">
         <v>130</v>
@@ -3560,13 +3548,13 @@
         <v>102250</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M43" s="7">
         <v>218</v>
@@ -3575,19 +3563,19 @@
         <v>199160</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="7">
         <v>50</v>
@@ -3596,13 +3584,13 @@
         <v>53049</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>54</v>
@@ -3611,13 +3599,13 @@
         <v>44959</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -3626,13 +3614,13 @@
         <v>98008</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>323</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3635,13 @@
         <v>1836511</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H45" s="7">
         <v>2037</v>
@@ -3662,13 +3650,13 @@
         <v>1503516</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M45" s="7">
         <v>3713</v>
@@ -3677,18 +3665,18 @@
         <v>3340027</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
